--- a/data_tables/LoRRca_deformability_2.xlsx
+++ b/data_tables/LoRRca_deformability_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miri\Documents\GitHub\R-graphs\data_tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uzh-my.sharepoint.com/personal/pauline_busch_uzh_ch/Documents/Documents/GitHub/R-graphs/data_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9869763-AD93-45AE-8E04-69EDB50DF137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{E9869763-AD93-45AE-8E04-69EDB50DF137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{410744C6-284F-4FCA-9389-22C5DEA9CE86}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="1935" windowWidth="21600" windowHeight="11295" xr2:uid="{CD73AF46-5553-49B2-86D2-713142B38856}"/>
+    <workbookView xWindow="6855" yWindow="3075" windowWidth="19740" windowHeight="13605" xr2:uid="{CD73AF46-5553-49B2-86D2-713142B38856}"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="3" r:id="rId1"/>
@@ -67,7 +67,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,12 +442,12 @@
   <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -467,652 +467,652 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2">
         <v>0.3</v>
       </c>
-      <c r="C2">
-        <v>0.104</v>
+      <c r="C2" s="1">
+        <v>0.10339999999999999</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>1.1730561E-2</v>
+        <v>1.0689113286757835E-2</v>
       </c>
       <c r="F2">
-        <v>5.8652799999999996E-3</v>
+        <v>4.7803167856773441E-3</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>0.53</v>
       </c>
-      <c r="C3">
-        <v>0.17100000000000001</v>
+      <c r="C3" s="1">
+        <v>0.16866666666666666</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>1.5333416000000001E-2</v>
+        <v>1.5244046456927125E-2</v>
       </c>
       <c r="F3">
-        <v>7.6667080000000004E-3</v>
+        <v>6.8173448259707739E-3</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>0.95</v>
       </c>
-      <c r="C4">
-        <v>0.27300000000000002</v>
+      <c r="C4" s="1">
+        <v>0.27006666666666668</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>1.3125271000000001E-2</v>
+        <v>1.3079245645933352E-2</v>
       </c>
       <c r="F4">
-        <v>6.5626349999999998E-3</v>
+        <v>5.8492164717450241E-3</v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>1.69</v>
       </c>
-      <c r="C5">
-        <v>0.35399999999999998</v>
+      <c r="C5" s="1">
+        <v>0.35279999999999995</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>1.3034627999999999E-2</v>
+        <v>1.2857460313541142E-2</v>
       </c>
       <c r="F5">
-        <v>6.5173139999999997E-3</v>
+        <v>5.7500310558167506E-3</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>0.42699999999999999</v>
+      <c r="C6" s="1">
+        <v>0.4247333333333333</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>9.7452400000000005E-3</v>
+        <v>9.7502136728723453E-3</v>
       </c>
       <c r="F6">
-        <v>4.8726200000000002E-3</v>
+        <v>4.3604281135380916E-3</v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7">
         <v>5.33</v>
       </c>
-      <c r="C7">
-        <v>0.49099999999999999</v>
+      <c r="C7" s="1">
+        <v>0.48986666666666662</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>5.0090830000000001E-3</v>
+        <v>5.0831186527657687E-3</v>
       </c>
       <c r="F7">
-        <v>2.5045409999999999E-3</v>
+        <v>2.2732397690562816E-3</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>9.49</v>
       </c>
-      <c r="C8">
-        <v>0.53700000000000003</v>
+      <c r="C8" s="1">
+        <v>0.53639999999999999</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>4.8210400000000004E-3</v>
+        <v>4.404543109109052E-3</v>
       </c>
       <c r="F8">
-        <v>2.4105200000000002E-3</v>
+        <v>1.9697715603592225E-3</v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>16.87</v>
       </c>
-      <c r="C9">
-        <v>0.57399999999999995</v>
+      <c r="C9" s="1">
+        <v>0.57380000000000009</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>5.1603090000000001E-3</v>
+        <v>4.8136710078098E-3</v>
       </c>
       <c r="F9">
-        <v>2.5801539999999999E-3</v>
+        <v>2.1527391189565268E-3</v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>30</v>
       </c>
-      <c r="C10">
-        <v>0.60499999999999998</v>
+      <c r="C10" s="1">
+        <v>0.60533333333333317</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>4.4789069999999999E-3</v>
+        <v>4.0824829046386341E-3</v>
       </c>
       <c r="F10">
-        <v>2.2394530000000002E-3</v>
+        <v>1.8257418583505554E-3</v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11">
         <v>0.3</v>
       </c>
-      <c r="C11">
-        <v>8.3000000000000004E-2</v>
+      <c r="C11" s="1">
+        <v>7.7466666666666656E-2</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>1.5011864E-2</v>
+        <v>1.7569725043245259E-2</v>
       </c>
       <c r="F11">
-        <v>7.5059319999999999E-3</v>
+        <v>7.8574199085353659E-3</v>
       </c>
       <c r="G11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12">
         <v>0.53</v>
       </c>
-      <c r="C12">
-        <v>0.14499999999999999</v>
+      <c r="C12" s="1">
+        <v>0.13733333333333334</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>1.3960985E-2</v>
+        <v>2.0464836276147622E-2</v>
       </c>
       <c r="F12">
-        <v>6.9804919999999996E-3</v>
+        <v>9.152153012373947E-3</v>
       </c>
       <c r="G12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13">
         <v>0.95</v>
       </c>
-      <c r="C13">
-        <v>0.247</v>
+      <c r="C13" s="1">
+        <v>0.23800000000000002</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>1.2587572E-2</v>
+        <v>2.1902380822967301E-2</v>
       </c>
       <c r="F13">
-        <v>6.293786E-3</v>
+        <v>9.7950424778485336E-3</v>
       </c>
       <c r="G13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14">
         <v>1.69</v>
       </c>
-      <c r="C14">
-        <v>0.33600000000000002</v>
+      <c r="C14" s="1">
+        <v>0.32733333333333337</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>1.4170766E-2</v>
+        <v>2.1754036297618313E-2</v>
       </c>
       <c r="F14">
-        <v>7.0853829999999998E-3</v>
+        <v>9.7287007892944786E-3</v>
       </c>
       <c r="G14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15">
-        <v>0.41299999999999998</v>
+      <c r="C15" s="1">
+        <v>0.40600000000000008</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>7.5498340000000001E-3</v>
+        <v>1.5574704766750097E-2</v>
       </c>
       <c r="F15">
-        <v>3.774917E-3</v>
+        <v>6.9652197175886447E-3</v>
       </c>
       <c r="G15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16">
         <v>5.33</v>
       </c>
-      <c r="C16">
-        <v>0.48299999999999998</v>
+      <c r="C16" s="1">
+        <v>0.47746666666666665</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>3.9542839999999998E-3</v>
+        <v>1.2040803643484605E-2</v>
       </c>
       <c r="F16">
-        <v>1.9771419999999999E-3</v>
+        <v>5.3848110901117434E-3</v>
       </c>
       <c r="G16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17">
         <v>9.49</v>
       </c>
-      <c r="C17">
-        <v>0.53400000000000003</v>
+      <c r="C17" s="1">
+        <v>0.53</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>3.604501E-3</v>
+        <v>8.1152413924135969E-3</v>
       </c>
       <c r="F17">
-        <v>1.80225E-3</v>
+        <v>3.6292462814513696E-3</v>
       </c>
       <c r="G17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18">
         <v>16.87</v>
       </c>
-      <c r="C18">
-        <v>0.57199999999999995</v>
+      <c r="C18" s="1">
+        <v>0.56906666666666672</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>4.8889179999999999E-3</v>
+        <v>7.7502688125423149E-3</v>
       </c>
       <c r="F18">
-        <v>2.444459E-3</v>
+        <v>3.4660255817482379E-3</v>
       </c>
       <c r="G18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19">
         <v>30</v>
       </c>
-      <c r="C19">
-        <v>0.60499999999999998</v>
+      <c r="C19" s="1">
+        <v>0.60193333333333332</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>4.5016830000000002E-3</v>
+        <v>7.0454308057133971E-3</v>
       </c>
       <c r="F19">
-        <v>2.2508419999999999E-3</v>
+        <v>3.1508124424692537E-3</v>
       </c>
       <c r="G19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
     </row>
   </sheetData>
